--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_22_13.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_22_13.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-605647.3611614608</v>
+        <v>-608374.586956026</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>12462872.94922251</v>
+        <v>12453496.45767769</v>
       </c>
     </row>
     <row r="8">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>13427094.88778492</v>
+        <v>13435385.01511707</v>
       </c>
     </row>
     <row r="11">
@@ -662,70 +662,70 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>187.5255871663199</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>187.5255871663199</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="G2" t="n">
+        <v>13.09783323005805</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R2" t="n">
+        <v>0</v>
+      </c>
+      <c r="S2" t="n">
+        <v>0</v>
+      </c>
+      <c r="T2" t="n">
+        <v>0</v>
+      </c>
+      <c r="U2" t="n">
+        <v>0</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="n">
+        <v>152.0747039460364</v>
+      </c>
+      <c r="X2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y2" t="n">
         <v>187.5255871663199</v>
-      </c>
-      <c r="H2" t="n">
-        <v>23.4940461680219</v>
-      </c>
-      <c r="I2" t="n">
-        <v>125.4713171199747</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>0</v>
-      </c>
-      <c r="R2" t="n">
-        <v>0</v>
-      </c>
-      <c r="S2" t="n">
-        <v>0</v>
-      </c>
-      <c r="T2" t="n">
-        <v>0</v>
-      </c>
-      <c r="U2" t="n">
-        <v>0</v>
-      </c>
-      <c r="V2" t="n">
-        <v>0</v>
-      </c>
-      <c r="W2" t="n">
-        <v>0</v>
-      </c>
-      <c r="X2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>9.331128146386401</v>
       </c>
     </row>
     <row r="3">
@@ -741,22 +741,22 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>121.6042427762949</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>136.1637893657753</v>
       </c>
       <c r="H3" t="n">
-        <v>100.8417573507397</v>
+        <v>35.12754583449783</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>48.77881175550657</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -795,10 +795,10 @@
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="W3" t="n">
-        <v>187.5255871663199</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
@@ -817,22 +817,22 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>32.3501675654041</v>
       </c>
       <c r="G4" t="n">
-        <v>167.0019352027142</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>153.4336708318196</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -862,19 +862,19 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>132.8223696106904</v>
       </c>
       <c r="S4" t="n">
-        <v>93.63290889532335</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -893,28 +893,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>353.0689959706385</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>122.9834705315896</v>
+        <v>412.2877386950441</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>94.24014755885166</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -972,7 +972,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>79.30254386173306</v>
       </c>
       <c r="C6" t="n">
         <v>172.7084989883157</v>
@@ -981,7 +981,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
         <v>145.0692123933839</v>
@@ -993,7 +993,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>33.85559031833734</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1026,7 +1026,7 @@
         <v>141.7193093041456</v>
       </c>
       <c r="T6" t="n">
-        <v>1.525341108284629</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
         <v>225.8352527003384</v>
@@ -1035,13 +1035,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1057,16 +1057,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>19.70448528988419</v>
+        <v>166.6385546828073</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1102,25 +1102,25 @@
         <v>116.4834600519698</v>
       </c>
       <c r="S7" t="n">
-        <v>200.4475243713015</v>
+        <v>39.19429865199959</v>
       </c>
       <c r="T7" t="n">
-        <v>222.1670476323163</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1130,25 +1130,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>380.3152734356227</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>411.8017695482147</v>
+        <v>230.196397769488</v>
       </c>
       <c r="H8" t="n">
-        <v>303.6205139245437</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1193,7 +1193,7 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -1224,13 +1224,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>135.3343964518635</v>
       </c>
       <c r="H9" t="n">
-        <v>94.14443997743302</v>
+        <v>92.83156789269626</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1260,13 +1260,13 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>136.8896184075919</v>
+        <v>134.3646350838588</v>
       </c>
       <c r="T9" t="n">
-        <v>192.6144866811616</v>
+        <v>192.0665623188214</v>
       </c>
       <c r="U9" t="n">
-        <v>76.42375356962118</v>
+        <v>225.8092030868072</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
@@ -1297,13 +1297,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>38.15952840502612</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1339,13 +1339,13 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>137.6824606572929</v>
       </c>
       <c r="T10" t="n">
-        <v>221.2356399621736</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2333704271363</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -1354,7 +1354,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634794</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -1382,13 +1382,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8432760127576</v>
+        <v>410.2038648533381</v>
       </c>
       <c r="H11" t="n">
-        <v>233.2715658672521</v>
+        <v>287.2559724681388</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>13.90160127647758</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,13 +1418,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>84.61259060081966</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>199.1970568374742</v>
+        <v>200.7755344871151</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9088959876463</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1436,7 +1436,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>225.3633865356814</v>
       </c>
     </row>
     <row r="12">
@@ -1461,13 +1461,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>134.4224477376697</v>
+        <v>134.6153797762879</v>
       </c>
       <c r="H12" t="n">
-        <v>84.02406320561457</v>
+        <v>85.88738052595264</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>5.593088388842418</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1497,13 +1497,13 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>117.4255876952162</v>
+        <v>121.0092156932325</v>
       </c>
       <c r="T12" t="n">
-        <v>188.3907690366107</v>
+        <v>189.168420543146</v>
       </c>
       <c r="U12" t="n">
-        <v>225.7492064608734</v>
+        <v>225.7618993581509</v>
       </c>
       <c r="V12" t="n">
         <v>232.8005871494253</v>
@@ -1531,22 +1531,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>136.4902286606407</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5420528771669</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>45.83840473129747</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.80457674440905</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,16 +1573,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>67.18075159108359</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.338488358459</v>
+        <v>184.1573103394252</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>218.173098443489</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.1942741524297</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1607,7 +1607,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710062</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1664,7 +1664,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701355</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -1762,25 +1762,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>42.54416032354752</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1810,13 +1810,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>6.43453821042729</v>
       </c>
       <c r="U16" t="n">
         <v>286.1844743892441</v>
@@ -1850,13 +1850,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722605</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H17" t="n">
         <v>283.1540821444137</v>
@@ -2011,16 +2011,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2050,19 +2050,19 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>187.255147055868</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>279.4578096667698</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -2078,7 +2078,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -2242,16 +2242,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
@@ -2284,16 +2284,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>160.1763464053459</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1844743892441</v>
+        <v>201.4105577836233</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2321,7 +2321,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>354.683041620682</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
         <v>381.9303700722618</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2476,7 +2476,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>110.0177171766856</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2542,7 +2542,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>161.3555494301526</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2552,7 +2552,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
@@ -2713,25 +2713,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>95.12712756824166</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2773,7 +2773,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>244.98041769</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2846,7 +2846,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U29" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -3083,7 +3083,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U32" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -3184,7 +3184,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
@@ -3193,19 +3193,19 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3247,7 +3247,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>242.6749871648658</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>110.1270172505054</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3475,7 +3475,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>155.0500112286387</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>286.1844743892441</v>
@@ -3503,7 +3503,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710062</v>
       </c>
       <c r="D38" t="n">
         <v>354.683041620683</v>
@@ -3518,7 +3518,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3676,7 +3676,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>83.06560892428168</v>
+        <v>83.06560892428169</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3737,7 +3737,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3943,10 +3943,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>123.7971820797026</v>
       </c>
       <c r="T43" t="n">
         <v>217.4054503272883</v>
@@ -3989,7 +3989,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>409.8033385187875</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H44" t="n">
         <v>283.1540821444137</v>
@@ -4144,16 +4144,16 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>27.02919805176109</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4304,25 +4304,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>740.6769666992326</v>
+        <v>407.0717515820912</v>
       </c>
       <c r="C2" t="n">
-        <v>740.6769666992326</v>
+        <v>407.0717515820912</v>
       </c>
       <c r="D2" t="n">
-        <v>551.2571816827478</v>
+        <v>407.0717515820912</v>
       </c>
       <c r="E2" t="n">
-        <v>361.8373966662631</v>
+        <v>217.6519665656065</v>
       </c>
       <c r="F2" t="n">
-        <v>354.8918959170596</v>
+        <v>28.2321815491218</v>
       </c>
       <c r="G2" t="n">
-        <v>165.4721109005749</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="H2" t="n">
-        <v>141.7407511348962</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="I2" t="n">
         <v>15.00204697330559</v>
@@ -4343,7 +4343,7 @@
         <v>509.4952041123826</v>
       </c>
       <c r="O2" t="n">
-        <v>649.4845259985581</v>
+        <v>649.4845259985582</v>
       </c>
       <c r="P2" t="n">
         <v>734.4611726020263</v>
@@ -4367,13 +4367,13 @@
         <v>750.1023486652795</v>
       </c>
       <c r="W2" t="n">
-        <v>750.1023486652795</v>
+        <v>596.491536598576</v>
       </c>
       <c r="X2" t="n">
-        <v>750.1023486652795</v>
+        <v>596.491536598576</v>
       </c>
       <c r="Y2" t="n">
-        <v>740.6769666992326</v>
+        <v>407.0717515820912</v>
       </c>
     </row>
     <row r="3">
@@ -4389,19 +4389,19 @@
         <v>386.2295343676677</v>
       </c>
       <c r="D3" t="n">
-        <v>386.2295343676677</v>
+        <v>237.2951247064165</v>
       </c>
       <c r="E3" t="n">
-        <v>263.3969659067637</v>
+        <v>237.2951247064165</v>
       </c>
       <c r="F3" t="n">
-        <v>116.8624079336487</v>
+        <v>237.2951247064165</v>
       </c>
       <c r="G3" t="n">
-        <v>116.8624079336487</v>
+        <v>99.7559435288656</v>
       </c>
       <c r="H3" t="n">
-        <v>15.00204697330559</v>
+        <v>64.27357399906981</v>
       </c>
       <c r="I3" t="n">
         <v>15.00204697330559</v>
@@ -4422,7 +4422,7 @@
         <v>512.50005875466</v>
       </c>
       <c r="O3" t="n">
-        <v>649.2101578476346</v>
+        <v>649.2101578476347</v>
       </c>
       <c r="P3" t="n">
         <v>739.598998701706</v>
@@ -4443,7 +4443,7 @@
         <v>750.1023486652795</v>
       </c>
       <c r="V3" t="n">
-        <v>750.1023486652795</v>
+        <v>560.6825636487947</v>
       </c>
       <c r="W3" t="n">
         <v>560.6825636487947</v>
@@ -4462,22 +4462,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>655.5236528114175</v>
+        <v>47.67898390805721</v>
       </c>
       <c r="C4" t="n">
-        <v>486.5874698835106</v>
+        <v>47.67898390805721</v>
       </c>
       <c r="D4" t="n">
-        <v>486.5874698835106</v>
+        <v>47.67898390805721</v>
       </c>
       <c r="E4" t="n">
-        <v>338.6743763011175</v>
+        <v>47.67898390805721</v>
       </c>
       <c r="F4" t="n">
-        <v>338.6743763011175</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="G4" t="n">
-        <v>169.9855528640325</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="H4" t="n">
         <v>15.00204697330559</v>
@@ -4489,19 +4489,19 @@
         <v>15.00204697330559</v>
       </c>
       <c r="K4" t="n">
-        <v>106.7151088594234</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="L4" t="n">
-        <v>279.6026869745584</v>
+        <v>187.8896250884407</v>
       </c>
       <c r="M4" t="n">
-        <v>465.2530182692151</v>
+        <v>373.5399563830973</v>
       </c>
       <c r="N4" t="n">
-        <v>587.3641452287293</v>
+        <v>559.190287677754</v>
       </c>
       <c r="O4" t="n">
-        <v>750.1023486652795</v>
+        <v>721.9284911143042</v>
       </c>
       <c r="P4" t="n">
         <v>750.1023486652795</v>
@@ -4510,28 +4510,28 @@
         <v>750.1023486652795</v>
       </c>
       <c r="R4" t="n">
-        <v>750.1023486652795</v>
+        <v>615.9383389575114</v>
       </c>
       <c r="S4" t="n">
-        <v>655.5236528114175</v>
+        <v>426.5185539410267</v>
       </c>
       <c r="T4" t="n">
-        <v>655.5236528114175</v>
+        <v>426.5185539410267</v>
       </c>
       <c r="U4" t="n">
-        <v>655.5236528114175</v>
+        <v>237.0987689245419</v>
       </c>
       <c r="V4" t="n">
-        <v>655.5236528114175</v>
+        <v>47.67898390805721</v>
       </c>
       <c r="W4" t="n">
-        <v>655.5236528114175</v>
+        <v>47.67898390805721</v>
       </c>
       <c r="X4" t="n">
-        <v>655.5236528114175</v>
+        <v>47.67898390805721</v>
       </c>
       <c r="Y4" t="n">
-        <v>655.5236528114175</v>
+        <v>47.67898390805721</v>
       </c>
     </row>
     <row r="5">
@@ -4541,25 +4541,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1312.994794866847</v>
+        <v>956.3594454015558</v>
       </c>
       <c r="C5" t="n">
-        <v>1312.994794866847</v>
+        <v>956.3594454015558</v>
       </c>
       <c r="D5" t="n">
-        <v>954.7290962600969</v>
+        <v>956.3594454015558</v>
       </c>
       <c r="E5" t="n">
-        <v>568.9408436618526</v>
+        <v>956.3594454015558</v>
       </c>
       <c r="F5" t="n">
-        <v>157.954938872245</v>
+        <v>545.3735406119482</v>
       </c>
       <c r="G5" t="n">
-        <v>33.72921106255854</v>
+        <v>128.9212793038228</v>
       </c>
       <c r="H5" t="n">
-        <v>33.72921106255854</v>
+        <v>128.9212793038228</v>
       </c>
       <c r="I5" t="n">
         <v>33.72921106255854</v>
@@ -4620,46 +4620,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>662.8886629835073</v>
+        <v>537.8487739561704</v>
       </c>
       <c r="C6" t="n">
-        <v>488.4356337023803</v>
+        <v>363.3957446750434</v>
       </c>
       <c r="D6" t="n">
-        <v>339.501224041129</v>
+        <v>214.4613350137921</v>
       </c>
       <c r="E6" t="n">
-        <v>180.2637690356736</v>
+        <v>214.4613350137921</v>
       </c>
       <c r="F6" t="n">
-        <v>33.72921106255854</v>
+        <v>67.92677704067707</v>
       </c>
       <c r="G6" t="n">
-        <v>33.72921106255854</v>
+        <v>67.92677704067707</v>
       </c>
       <c r="H6" t="n">
-        <v>33.72921106255854</v>
+        <v>67.92677704067707</v>
       </c>
       <c r="I6" t="n">
         <v>33.72921106255854</v>
       </c>
       <c r="J6" t="n">
-        <v>183.8748628766941</v>
+        <v>59.04473788968937</v>
       </c>
       <c r="K6" t="n">
-        <v>305.2979551469729</v>
+        <v>206.1141890339551</v>
       </c>
       <c r="L6" t="n">
-        <v>660.7750882322384</v>
+        <v>415.7050622867857</v>
       </c>
       <c r="M6" t="n">
-        <v>924.7146197277257</v>
+        <v>679.644593782273</v>
       </c>
       <c r="N6" t="n">
-        <v>1210.048490161058</v>
+        <v>964.9784642156058</v>
       </c>
       <c r="O6" t="n">
-        <v>1448.853441912517</v>
+        <v>1203.783415967064</v>
       </c>
       <c r="P6" t="n">
         <v>1621.182402866226</v>
@@ -4674,22 +4674,22 @@
         <v>1543.309735648992</v>
       </c>
       <c r="T6" t="n">
-        <v>1541.768987054765</v>
+        <v>1543.309735648992</v>
       </c>
       <c r="U6" t="n">
-        <v>1313.652570185737</v>
+        <v>1315.193318779964</v>
       </c>
       <c r="V6" t="n">
-        <v>1078.500461953994</v>
+        <v>1080.041210548221</v>
       </c>
       <c r="W6" t="n">
-        <v>1078.500461953994</v>
+        <v>825.8038538200194</v>
       </c>
       <c r="X6" t="n">
-        <v>870.6489617484613</v>
+        <v>617.9523536144866</v>
       </c>
       <c r="Y6" t="n">
-        <v>662.8886629835073</v>
+        <v>617.9523536144866</v>
       </c>
     </row>
     <row r="7">
@@ -4699,19 +4699,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>520.5986474800268</v>
+        <v>370.9871663973415</v>
       </c>
       <c r="C7" t="n">
-        <v>351.6624645521199</v>
+        <v>202.0509834694346</v>
       </c>
       <c r="D7" t="n">
-        <v>201.5458251397842</v>
+        <v>202.0509834694346</v>
       </c>
       <c r="E7" t="n">
-        <v>53.63273155739105</v>
+        <v>202.0509834694346</v>
       </c>
       <c r="F7" t="n">
-        <v>53.63273155739105</v>
+        <v>202.0509834694346</v>
       </c>
       <c r="G7" t="n">
         <v>33.72921106255854</v>
@@ -4750,25 +4750,25 @@
         <v>1175.471604442305</v>
       </c>
       <c r="S7" t="n">
-        <v>972.9993576026061</v>
+        <v>1135.881403783719</v>
       </c>
       <c r="T7" t="n">
-        <v>748.5881983780441</v>
+        <v>1135.881403783719</v>
       </c>
       <c r="U7" t="n">
-        <v>748.5881983780441</v>
+        <v>1135.881403783719</v>
       </c>
       <c r="V7" t="n">
-        <v>748.5881983780441</v>
+        <v>881.1969155778322</v>
       </c>
       <c r="W7" t="n">
-        <v>748.5881983780441</v>
+        <v>591.7797455408717</v>
       </c>
       <c r="X7" t="n">
-        <v>520.5986474800268</v>
+        <v>591.7797455408717</v>
       </c>
       <c r="Y7" t="n">
-        <v>520.5986474800268</v>
+        <v>370.9871663973415</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1879.084840562401</v>
+        <v>1449.50507480484</v>
       </c>
       <c r="C8" t="n">
-        <v>1510.122323621989</v>
+        <v>1080.542557864429</v>
       </c>
       <c r="D8" t="n">
-        <v>1151.856625015238</v>
+        <v>1080.542557864429</v>
       </c>
       <c r="E8" t="n">
-        <v>1151.856625015238</v>
+        <v>694.7543052661845</v>
       </c>
       <c r="F8" t="n">
-        <v>767.6997831610742</v>
+        <v>283.7684004765769</v>
       </c>
       <c r="G8" t="n">
-        <v>351.7383997790391</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="H8" t="n">
-        <v>45.05101197646961</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="I8" t="n">
-        <v>45.05101197646961</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="J8" t="n">
-        <v>159.9844436776357</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K8" t="n">
-        <v>382.9783826250327</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L8" t="n">
-        <v>696.5238442201367</v>
+        <v>795.7553530872915</v>
       </c>
       <c r="M8" t="n">
-        <v>1077.073021431431</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N8" t="n">
-        <v>1468.393690560753</v>
+        <v>1656.671415230817</v>
       </c>
       <c r="O8" t="n">
-        <v>1824.571440624376</v>
+        <v>2055.22848474084</v>
       </c>
       <c r="P8" t="n">
-        <v>2094.059908981239</v>
+        <v>2360.886721764998</v>
       </c>
       <c r="Q8" t="n">
-        <v>2248.261778997929</v>
+        <v>2542.250581723851</v>
       </c>
       <c r="R8" t="n">
-        <v>2252.55059882348</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="S8" t="n">
-        <v>2252.55059882348</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="T8" t="n">
-        <v>2252.55059882348</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="U8" t="n">
-        <v>2252.55059882348</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="V8" t="n">
-        <v>2252.55059882348</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="W8" t="n">
-        <v>2252.55059882348</v>
+        <v>2209.570673130042</v>
       </c>
       <c r="X8" t="n">
-        <v>1879.084840562401</v>
+        <v>1836.104914868962</v>
       </c>
       <c r="Y8" t="n">
-        <v>1879.084840562401</v>
+        <v>1836.104914868962</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>769.3058578140175</v>
+        <v>931.3041410966398</v>
       </c>
       <c r="C9" t="n">
-        <v>594.8528285328905</v>
+        <v>756.8511118155128</v>
       </c>
       <c r="D9" t="n">
-        <v>445.9184188716392</v>
+        <v>607.9167021542614</v>
       </c>
       <c r="E9" t="n">
-        <v>286.6809638661837</v>
+        <v>448.6792471488059</v>
       </c>
       <c r="F9" t="n">
-        <v>140.1464058930686</v>
+        <v>302.1446891756909</v>
       </c>
       <c r="G9" t="n">
-        <v>140.1464058930686</v>
+        <v>165.4432786182533</v>
       </c>
       <c r="H9" t="n">
-        <v>45.05101197646961</v>
+        <v>71.67401812058006</v>
       </c>
       <c r="I9" t="n">
-        <v>45.05101197646961</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="J9" t="n">
-        <v>94.68672956785962</v>
+        <v>113.5972052500114</v>
       </c>
       <c r="K9" t="n">
-        <v>477.9725453962583</v>
+        <v>298.3188265310615</v>
       </c>
       <c r="L9" t="n">
-        <v>743.4554869738952</v>
+        <v>932.4978103101002</v>
       </c>
       <c r="M9" t="n">
-        <v>1072.618425945881</v>
+        <v>1295.759829269321</v>
       </c>
       <c r="N9" t="n">
-        <v>1424.901973373309</v>
+        <v>1683.044957866266</v>
       </c>
       <c r="O9" t="n">
-        <v>1724.952799893291</v>
+        <v>2015.115393042428</v>
       </c>
       <c r="P9" t="n">
-        <v>1946.43697488044</v>
+        <v>2422.685363568937</v>
       </c>
       <c r="Q9" t="n">
-        <v>2252.55059882348</v>
+        <v>2538.001278676483</v>
       </c>
       <c r="R9" t="n">
-        <v>2252.55059882348</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="S9" t="n">
-        <v>2114.27825699763</v>
+        <v>2426.617474780097</v>
       </c>
       <c r="T9" t="n">
-        <v>1919.718169440901</v>
+        <v>2232.610846175227</v>
       </c>
       <c r="U9" t="n">
-        <v>1842.522458764516</v>
+        <v>2004.520742047139</v>
       </c>
       <c r="V9" t="n">
-        <v>1607.370350532774</v>
+        <v>1769.368633815396</v>
       </c>
       <c r="W9" t="n">
-        <v>1353.132993804572</v>
+        <v>1515.131277087195</v>
       </c>
       <c r="X9" t="n">
-        <v>1145.281493599039</v>
+        <v>1307.279776881662</v>
       </c>
       <c r="Y9" t="n">
-        <v>937.5211948340855</v>
+        <v>1099.519478116708</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>233.7126295757004</v>
+        <v>664.1529317523638</v>
       </c>
       <c r="C10" t="n">
-        <v>233.7126295757004</v>
+        <v>664.1529317523638</v>
       </c>
       <c r="D10" t="n">
-        <v>83.59599016336469</v>
+        <v>514.036292340028</v>
       </c>
       <c r="E10" t="n">
-        <v>83.59599016336469</v>
+        <v>366.1231987576349</v>
       </c>
       <c r="F10" t="n">
-        <v>45.05101197646961</v>
+        <v>219.2332512597245</v>
       </c>
       <c r="G10" t="n">
-        <v>45.05101197646961</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="H10" t="n">
-        <v>45.05101197646961</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="I10" t="n">
-        <v>45.05101197646961</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="J10" t="n">
-        <v>62.54339010339261</v>
+        <v>76.71595955312203</v>
       </c>
       <c r="K10" t="n">
-        <v>221.1255775257471</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L10" t="n">
-        <v>479.5826140931213</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M10" t="n">
-        <v>762.4784438973795</v>
+        <v>824.219460709659</v>
       </c>
       <c r="N10" t="n">
-        <v>1044.082259594016</v>
+        <v>1123.088724245823</v>
       </c>
       <c r="O10" t="n">
-        <v>1288.172666773712</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P10" t="n">
-        <v>1473.513495807931</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q10" t="n">
-        <v>1518.398798705767</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="R10" t="n">
-        <v>1518.398798705767</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="S10" t="n">
-        <v>1518.398798705767</v>
+        <v>1497.372927491374</v>
       </c>
       <c r="T10" t="n">
-        <v>1294.928455309632</v>
+        <v>1497.372927491374</v>
       </c>
       <c r="U10" t="n">
-        <v>1005.803838716565</v>
+        <v>1208.254589995211</v>
       </c>
       <c r="V10" t="n">
-        <v>751.1193505106784</v>
+        <v>953.5701017893243</v>
       </c>
       <c r="W10" t="n">
-        <v>461.7021804737178</v>
+        <v>664.1529317523638</v>
       </c>
       <c r="X10" t="n">
-        <v>233.7126295757004</v>
+        <v>664.1529317523638</v>
       </c>
       <c r="Y10" t="n">
-        <v>233.7126295757004</v>
+        <v>664.1529317523638</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2266.424947555044</v>
+        <v>2326.567439305983</v>
       </c>
       <c r="C11" t="n">
-        <v>1897.462430614632</v>
+        <v>1957.604922365571</v>
       </c>
       <c r="D11" t="n">
-        <v>1539.196732007882</v>
+        <v>1599.33922375882</v>
       </c>
       <c r="E11" t="n">
-        <v>1153.408479409637</v>
+        <v>1213.550971160576</v>
       </c>
       <c r="F11" t="n">
-        <v>742.4225746200298</v>
+        <v>802.5650663709685</v>
       </c>
       <c r="G11" t="n">
-        <v>328.4394675364362</v>
+        <v>388.2177281352734</v>
       </c>
       <c r="H11" t="n">
-        <v>92.81162322608048</v>
+        <v>98.06018018765852</v>
       </c>
       <c r="I11" t="n">
-        <v>92.81162322608047</v>
+        <v>84.01815869626702</v>
       </c>
       <c r="J11" t="n">
-        <v>372.3074987251932</v>
+        <v>333.2155523582478</v>
       </c>
       <c r="K11" t="n">
-        <v>841.9378825128749</v>
+        <v>757.4363659432448</v>
       </c>
       <c r="L11" t="n">
-        <v>1461.457663018649</v>
+        <v>1320.621559223719</v>
       </c>
       <c r="M11" t="n">
-        <v>2182.462224957686</v>
+        <v>1978.943038361722</v>
       </c>
       <c r="N11" t="n">
-        <v>2919.747202874792</v>
+        <v>2652.530655664927</v>
       </c>
       <c r="O11" t="n">
-        <v>3602.609239333931</v>
+        <v>3275.245080740851</v>
       </c>
       <c r="P11" t="n">
-        <v>4150.915188021278</v>
+        <v>3772.216434676795</v>
       </c>
       <c r="Q11" t="n">
-        <v>4514.497374127286</v>
+        <v>4097.248478006153</v>
       </c>
       <c r="R11" t="n">
-        <v>4640.581161304024</v>
+        <v>4200.907934813351</v>
       </c>
       <c r="S11" t="n">
-        <v>4555.113898070873</v>
+        <v>4200.907934813351</v>
       </c>
       <c r="T11" t="n">
-        <v>4353.904749750192</v>
+        <v>3998.104364624346</v>
       </c>
       <c r="U11" t="n">
-        <v>4100.461420469741</v>
+        <v>3998.104364624346</v>
       </c>
       <c r="V11" t="n">
-        <v>3769.39853312617</v>
+        <v>3667.041477280775</v>
       </c>
       <c r="W11" t="n">
-        <v>3416.629877856056</v>
+        <v>3314.272822010661</v>
       </c>
       <c r="X11" t="n">
-        <v>3043.164119594976</v>
+        <v>2940.807063749581</v>
       </c>
       <c r="Y11" t="n">
-        <v>2653.024787619164</v>
+        <v>2713.167279370105</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>942.6241165038822</v>
+        <v>941.5572557597237</v>
       </c>
       <c r="C12" t="n">
-        <v>768.1710872227552</v>
+        <v>767.1042264785967</v>
       </c>
       <c r="D12" t="n">
-        <v>619.2366775615039</v>
+        <v>618.1698168173455</v>
       </c>
       <c r="E12" t="n">
-        <v>459.9992225560484</v>
+        <v>458.93236181189</v>
       </c>
       <c r="F12" t="n">
-        <v>313.4646645829333</v>
+        <v>312.397803838775</v>
       </c>
       <c r="G12" t="n">
-        <v>177.6844143428629</v>
+        <v>176.4226727516156</v>
       </c>
       <c r="H12" t="n">
-        <v>92.81162322608048</v>
+        <v>89.66774292742097</v>
       </c>
       <c r="I12" t="n">
-        <v>92.81162322608048</v>
+        <v>84.01815869626702</v>
       </c>
       <c r="J12" t="n">
-        <v>240.4596049779263</v>
+        <v>213.6205722312971</v>
       </c>
       <c r="K12" t="n">
-        <v>240.4596049779263</v>
+        <v>513.2865644563005</v>
       </c>
       <c r="L12" t="n">
-        <v>731.1919378216775</v>
+        <v>892.9851926045691</v>
       </c>
       <c r="M12" t="n">
-        <v>1323.210292073805</v>
+        <v>892.9851926045691</v>
       </c>
       <c r="N12" t="n">
-        <v>1945.306255473141</v>
+        <v>1465.404532370417</v>
       </c>
       <c r="O12" t="n">
-        <v>2492.182730473335</v>
+        <v>1966.836601862157</v>
       </c>
       <c r="P12" t="n">
-        <v>2552.77562977024</v>
+        <v>2349.946978418137</v>
       </c>
       <c r="Q12" t="n">
-        <v>2552.77562977024</v>
+        <v>2556.126922967323</v>
       </c>
       <c r="R12" t="n">
-        <v>2552.77562977024</v>
+        <v>2556.126922967323</v>
       </c>
       <c r="S12" t="n">
-        <v>2434.163925027597</v>
+        <v>2433.895391964058</v>
       </c>
       <c r="T12" t="n">
-        <v>2243.870218930011</v>
+        <v>2242.816179294213</v>
       </c>
       <c r="U12" t="n">
-        <v>2015.840717454381</v>
+        <v>2014.773856710223</v>
       </c>
       <c r="V12" t="n">
-        <v>1780.688609222638</v>
+        <v>1779.62174847848</v>
       </c>
       <c r="W12" t="n">
-        <v>1526.451252494437</v>
+        <v>1525.384391750278</v>
       </c>
       <c r="X12" t="n">
-        <v>1318.599752288904</v>
+        <v>1317.532891544746</v>
       </c>
       <c r="Y12" t="n">
-        <v>1110.83945352395</v>
+        <v>1109.772592779792</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1002.813985992963</v>
+        <v>390.823259463205</v>
       </c>
       <c r="C13" t="n">
-        <v>833.8778030650566</v>
+        <v>221.8870765352981</v>
       </c>
       <c r="D13" t="n">
-        <v>683.7611636527208</v>
+        <v>221.8870765352981</v>
       </c>
       <c r="E13" t="n">
-        <v>535.8480700703277</v>
+        <v>221.8870765352981</v>
       </c>
       <c r="F13" t="n">
-        <v>388.9581225724173</v>
+        <v>84.01815869626702</v>
       </c>
       <c r="G13" t="n">
-        <v>221.7439277469962</v>
+        <v>84.01815869626702</v>
       </c>
       <c r="H13" t="n">
-        <v>175.4425088264937</v>
+        <v>84.01815869626702</v>
       </c>
       <c r="I13" t="n">
-        <v>92.81162322608048</v>
+        <v>84.01815869626702</v>
       </c>
       <c r="J13" t="n">
-        <v>171.7937461156343</v>
+        <v>151.6790720080879</v>
       </c>
       <c r="K13" t="n">
-        <v>431.4224730861979</v>
+        <v>392.7035739042748</v>
       </c>
       <c r="L13" t="n">
-        <v>819.184291169332</v>
+        <v>756.6583891027175</v>
       </c>
       <c r="M13" t="n">
-        <v>1238.413883213791</v>
+        <v>1150.786834593383</v>
       </c>
       <c r="N13" t="n">
-        <v>1653.109749005498</v>
+        <v>1540.978402992525</v>
       </c>
       <c r="O13" t="n">
-        <v>2020.132206020528</v>
+        <v>1885.367175230057</v>
       </c>
       <c r="P13" t="n">
-        <v>2310.662640856732</v>
+        <v>2156.530582649243</v>
       </c>
       <c r="Q13" t="n">
-        <v>2428.375774410167</v>
+        <v>2260.834990290308</v>
       </c>
       <c r="R13" t="n">
-        <v>2360.516429368668</v>
+        <v>2260.834990290308</v>
       </c>
       <c r="S13" t="n">
-        <v>2177.346239107598</v>
+        <v>2074.81750509897</v>
       </c>
       <c r="T13" t="n">
-        <v>2177.346239107598</v>
+        <v>1854.440637984334</v>
       </c>
       <c r="U13" t="n">
-        <v>2177.346239107598</v>
+        <v>1565.35551257784</v>
       </c>
       <c r="V13" t="n">
-        <v>1922.661750901711</v>
+        <v>1310.671024371953</v>
       </c>
       <c r="W13" t="n">
-        <v>1633.244580864751</v>
+        <v>1021.253854334992</v>
       </c>
       <c r="X13" t="n">
-        <v>1405.255029966733</v>
+        <v>793.2643034369748</v>
       </c>
       <c r="Y13" t="n">
-        <v>1184.462450823203</v>
+        <v>572.4717242934447</v>
       </c>
     </row>
     <row r="14">
@@ -5252,7 +5252,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
         <v>1948.813509611463</v>
@@ -5270,16 +5270,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5288,40 +5288,40 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="15">
@@ -5340,7 +5340,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5349,34 +5349,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797186</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>93.81666304797186</v>
+        <v>577.3880777468473</v>
       </c>
       <c r="L15" t="n">
-        <v>93.81666304797186</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>680.0291294438176</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N15" t="n">
-        <v>1307.627092998424</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O15" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>719.5738700011939</v>
+        <v>726.955532171245</v>
       </c>
       <c r="C16" t="n">
-        <v>550.637687073287</v>
+        <v>558.0193492433381</v>
       </c>
       <c r="D16" t="n">
-        <v>550.637687073287</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="E16" t="n">
-        <v>402.7245934908938</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F16" t="n">
-        <v>402.7245934908938</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G16" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S16" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T16" t="n">
-        <v>2044.506784258106</v>
+        <v>2190.563011941682</v>
       </c>
       <c r="U16" t="n">
-        <v>1755.431557602304</v>
+        <v>1901.48778528588</v>
       </c>
       <c r="V16" t="n">
-        <v>1500.747069396417</v>
+        <v>1646.803297079993</v>
       </c>
       <c r="W16" t="n">
-        <v>1211.329899359456</v>
+        <v>1357.386127043032</v>
       </c>
       <c r="X16" t="n">
-        <v>983.3403484614387</v>
+        <v>1129.396576145015</v>
       </c>
       <c r="Y16" t="n">
-        <v>762.5477693179085</v>
+        <v>908.6039970014847</v>
       </c>
     </row>
     <row r="17">
@@ -5489,25 +5489,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
         <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
         <v>95.34095638192616</v>
@@ -5522,10 +5522,10 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
         <v>3640.42229106801</v>
@@ -5534,31 +5534,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="18">
@@ -5586,31 +5586,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797186</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>427.7414352191925</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>716.6687843969308</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
         <v>2553.061288060775</v>
@@ -5647,28 +5647,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>810.0653816078141</v>
+        <v>1016.58045691144</v>
       </c>
       <c r="C19" t="n">
-        <v>641.1291986799072</v>
+        <v>847.6442739835331</v>
       </c>
       <c r="D19" t="n">
-        <v>491.0125592675714</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="E19" t="n">
-        <v>343.0994656851783</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F19" t="n">
-        <v>343.0994656851783</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G19" t="n">
-        <v>175.9033664000582</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782957</v>
@@ -5677,46 +5677,46 @@
         <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797728</v>
       </c>
       <c r="M19" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910807</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570816</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279801</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580259</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832661</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2379.917379832661</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>2190.770766644916</v>
       </c>
       <c r="U19" t="n">
-        <v>1977.461080510508</v>
+        <v>1901.695539989114</v>
       </c>
       <c r="V19" t="n">
-        <v>1722.776592304621</v>
+        <v>1647.011051783227</v>
       </c>
       <c r="W19" t="n">
-        <v>1440.495976479601</v>
+        <v>1647.011051783227</v>
       </c>
       <c r="X19" t="n">
-        <v>1212.506425581584</v>
+        <v>1419.02150088521</v>
       </c>
       <c r="Y19" t="n">
-        <v>991.7138464380538</v>
+        <v>1198.22892174168</v>
       </c>
     </row>
     <row r="20">
@@ -5741,28 +5741,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
         <v>3640.42229106801</v>
@@ -5771,7 +5771,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
@@ -5826,28 +5826,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>119.290296770379</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>716.6687843969308</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
         <v>2553.061288060775</v>
@@ -5884,19 +5884,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>571.6607764188008</v>
+        <v>849.3843576263199</v>
       </c>
       <c r="C22" t="n">
-        <v>402.7245934908939</v>
+        <v>680.448174698413</v>
       </c>
       <c r="D22" t="n">
-        <v>402.7245934908939</v>
+        <v>530.3315352860773</v>
       </c>
       <c r="E22" t="n">
-        <v>402.7245934908939</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="F22" t="n">
-        <v>402.7245934908939</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G22" t="n">
         <v>235.5284942057738</v>
@@ -5932,28 +5932,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T22" t="n">
-        <v>2035.268256189238</v>
+        <v>2227.3616186032</v>
       </c>
       <c r="U22" t="n">
-        <v>1746.193029533436</v>
+        <v>2023.916610740955</v>
       </c>
       <c r="V22" t="n">
-        <v>1491.508541327549</v>
+        <v>1769.232122535068</v>
       </c>
       <c r="W22" t="n">
-        <v>1202.091371290588</v>
+        <v>1479.814952498107</v>
       </c>
       <c r="X22" t="n">
-        <v>974.1018203925706</v>
+        <v>1251.82540160009</v>
       </c>
       <c r="Y22" t="n">
-        <v>753.3092412490405</v>
+        <v>1031.03282245656</v>
       </c>
     </row>
     <row r="23">
@@ -5963,10 +5963,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
         <v>1590.547811004713</v>
@@ -5981,22 +5981,22 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
         <v>2950.898526355937</v>
@@ -6014,25 +6014,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="24">
@@ -6060,31 +6060,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797186</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797186</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>119.290296770379</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>716.6687843969308</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
         <v>2553.061288060775</v>
@@ -6121,28 +6121,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D25" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E25" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G25" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782957</v>
@@ -6190,7 +6190,7 @@
         <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6221,16 +6221,16 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J26" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075817</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
         <v>2206.558663014779</v>
@@ -6242,10 +6242,10 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
@@ -6300,31 +6300,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,25 +6358,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>555.8158034133954</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C28" t="n">
-        <v>555.8158034133954</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D28" t="n">
-        <v>555.8158034133954</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E28" t="n">
-        <v>407.9027098310023</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F28" t="n">
-        <v>261.0127623330919</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G28" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
@@ -6406,28 +6406,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W28" t="n">
-        <v>1186.246398285183</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X28" t="n">
-        <v>958.2568473871653</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y28" t="n">
-        <v>737.4642682436352</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="29">
@@ -6449,7 +6449,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.773653616861</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362686</v>
@@ -6458,22 +6458,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
         <v>3640.42229106801</v>
@@ -6497,13 +6497,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6540,28 +6540,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L30" t="n">
-        <v>119.290296770379</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="M30" t="n">
-        <v>716.6687843969308</v>
+        <v>1174.766565373399</v>
       </c>
       <c r="N30" t="n">
-        <v>1344.266747951538</v>
+        <v>1802.364528928006</v>
       </c>
       <c r="O30" t="n">
-        <v>1896.176478190825</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P30" t="n">
-        <v>2319.799627685893</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6734,13 +6734,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6832,25 +6832,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>806.8386896933887</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>637.9025067654818</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D34" t="n">
-        <v>637.9025067654818</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E34" t="n">
-        <v>489.9894131830887</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F34" t="n">
-        <v>343.0994656851783</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G34" t="n">
-        <v>175.9033664000583</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
@@ -6880,28 +6880,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1255.620819734936</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>1027.631268836919</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>806.8386896933887</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6932,22 +6932,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
         <v>3640.42229106801</v>
@@ -7011,22 +7011,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>923.0670414349511</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1520.445529061503</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>2148.04349261611</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
         <v>2553.061288060775</v>
@@ -7069,25 +7069,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>576.8388927589092</v>
+        <v>915.1035305473698</v>
       </c>
       <c r="C37" t="n">
-        <v>407.9027098310023</v>
+        <v>746.1673476194629</v>
       </c>
       <c r="D37" t="n">
-        <v>407.9027098310023</v>
+        <v>596.0507082071272</v>
       </c>
       <c r="E37" t="n">
-        <v>407.9027098310023</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F37" t="n">
-        <v>261.0127623330919</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G37" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
@@ -7123,22 +7123,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2040.446372529346</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="U37" t="n">
-        <v>1751.371145873544</v>
+        <v>1907.987318831765</v>
       </c>
       <c r="V37" t="n">
-        <v>1496.686657667657</v>
+        <v>1653.302830625878</v>
       </c>
       <c r="W37" t="n">
-        <v>1207.269487630696</v>
+        <v>1363.885660588917</v>
       </c>
       <c r="X37" t="n">
-        <v>979.2799367326791</v>
+        <v>1135.8961096909</v>
       </c>
       <c r="Y37" t="n">
-        <v>758.4873575891489</v>
+        <v>915.1035305473698</v>
       </c>
     </row>
     <row r="38">
@@ -7148,31 +7148,31 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C38" t="n">
         <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
         <v>852.8523611075807</v>
@@ -7181,10 +7181,10 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O38" t="n">
         <v>3640.42229106801</v>
@@ -7193,31 +7193,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="39">
@@ -7245,28 +7245,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>352.5519571452614</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>949.9304447718133</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1577.52840832642</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
         <v>2553.061288060775</v>
@@ -7324,10 +7324,10 @@
         <v>177.7213185270443</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J40" t="n">
         <v>174.0526814782957</v>
@@ -7406,22 +7406,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
         <v>3640.42229106801</v>
@@ -7445,13 +7445,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7485,28 +7485,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>119.290296770379</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>716.6687843969308</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
         <v>2553.061288060775</v>
@@ -7591,7 +7591,7 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
         <v>2254.869721166297</v>
@@ -7643,16 +7643,16 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
         <v>2206.55866301478</v>
@@ -7661,10 +7661,10 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q44" t="n">
         <v>4562.265728852255</v>
@@ -7722,25 +7722,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>352.5519571452614</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>949.9304447718133</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1577.52840832642</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
         <v>2553.061288060775</v>
@@ -7792,13 +7792,13 @@
         <v>344.9174178121643</v>
       </c>
       <c r="F46" t="n">
-        <v>261.0127623330919</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G46" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -8137,7 +8137,7 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K4" t="n">
-        <v>106.7437663446525</v>
+        <v>14.10430989402852</v>
       </c>
       <c r="L4" t="n">
         <v>162.4747015415544</v>
@@ -8146,13 +8146,13 @@
         <v>171.4142040457083</v>
       </c>
       <c r="N4" t="n">
-        <v>99.67938739116971</v>
+        <v>163.8604018711116</v>
       </c>
       <c r="O4" t="n">
         <v>163.0416663658825</v>
       </c>
       <c r="P4" t="n">
-        <v>18.10760906709386</v>
+        <v>46.56605103777598</v>
       </c>
       <c r="Q4" t="n">
         <v>65.34295837775146</v>
@@ -8292,13 +8292,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>25.9054130040272</v>
       </c>
       <c r="L6" t="n">
-        <v>147.3598584166009</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -8310,7 +8310,7 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>247.5454807529823</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
@@ -8532,10 +8532,10 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>222.5208524030392</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>342.9044714621888</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -8547,13 +8547,13 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>162.0073097921338</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>29.37784352286394</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -22550,19 +22550,19 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>167.1574544543631</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>194.4047829059419</v>
+        <v>154.2459723096743</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>219.3504585753916</v>
       </c>
       <c r="G2" t="n">
-        <v>225.5722460637382</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>293.3997799382004</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -23273,7 +23273,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>50.29152613729218</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23306,13 +23306,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>92.8295088055465</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>250.9377430948927</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -23324,7 +23324,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>160.8745521203722</v>
       </c>
     </row>
     <row r="12">
@@ -23419,22 +23419,22 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>8.930819362290521</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.7038006173371</v>
       </c>
       <c r="H13" t="n">
-        <v>94.61558506065644</v>
+        <v>141.8920742454672</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>86.66877242152751</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,16 +23461,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>74.45351816273651</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4819944627618</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1854515484204</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23650,28 +23650,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>137.2878198583898</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,13 +23698,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012245</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>210.970912116861</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23899,16 +23899,16 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462245</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23938,19 +23938,19 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>30.15030327142023</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>7.065188669821168</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -24130,16 +24130,16 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -24172,16 +24172,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>57.22910392194237</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>84.77391660562083</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24364,7 +24364,7 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>57.22910392194228</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -24430,7 +24430,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>57.22910392194223</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24601,25 +24601,25 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>72.11969353038617</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,7 +24646,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24661,7 +24661,7 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>41.54258064659103</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -25072,7 +25072,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -25081,19 +25081,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,7 +25120,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25135,7 +25135,7 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>43.84801117172518</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25309,28 +25309,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>36.30694539606372</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25363,7 +25363,7 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>62.35543909864958</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25564,7 +25564,7 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>57.22910392194221</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="I40" t="n">
         <v>81.26583631856553</v>
@@ -25831,10 +25831,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>57.229103921942</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -26032,16 +26032,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>62.35543909864957</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1085468.741678277</v>
+        <v>1142970.700016163</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>1194412.701649372</v>
+        <v>1196475.529789231</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>1157237.441814465</v>
+        <v>1099735.483476579</v>
       </c>
     </row>
     <row r="6">
@@ -26311,37 +26311,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>244059.1538127109</v>
+        <v>257173.6355388955</v>
       </c>
       <c r="C2" t="n">
-        <v>266838.575205892</v>
+        <v>266838.5752058921</v>
       </c>
       <c r="D2" t="n">
         <v>266838.575205892</v>
       </c>
       <c r="E2" t="n">
-        <v>260870.9257823599</v>
+        <v>247756.4440561754</v>
       </c>
       <c r="F2" t="n">
-        <v>262322.644899252</v>
+        <v>262322.6448992519</v>
       </c>
       <c r="G2" t="n">
         <v>262322.6448992519</v>
       </c>
       <c r="H2" t="n">
+        <v>262322.6448992519</v>
+      </c>
+      <c r="I2" t="n">
         <v>262322.644899252</v>
       </c>
-      <c r="I2" t="n">
+      <c r="J2" t="n">
         <v>262322.6448992519</v>
       </c>
-      <c r="J2" t="n">
-        <v>262322.644899252</v>
-      </c>
       <c r="K2" t="n">
-        <v>262322.644899252</v>
+        <v>262322.6448992519</v>
       </c>
       <c r="L2" t="n">
-        <v>262322.644899252</v>
+        <v>262322.6448992519</v>
       </c>
       <c r="M2" t="n">
         <v>262322.644899252</v>
@@ -26369,13 +26369,13 @@
         <v>259123.8056778329</v>
       </c>
       <c r="D3" t="n">
-        <v>147488.5944756698</v>
+        <v>225670.6156307094</v>
       </c>
       <c r="E3" t="n">
-        <v>569651.4183104438</v>
+        <v>390871.434104541</v>
       </c>
       <c r="F3" t="n">
-        <v>11452.26311504165</v>
+        <v>113846.8453039451</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26387,19 +26387,19 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>49064.94472854466</v>
+        <v>49064.94472854459</v>
       </c>
       <c r="K3" t="n">
         <v>60247.15959153567</v>
       </c>
       <c r="L3" t="n">
-        <v>35818.07393878332</v>
+        <v>55419.25877810594</v>
       </c>
       <c r="M3" t="n">
-        <v>148776.6920731004</v>
+        <v>102084.4627481484</v>
       </c>
       <c r="N3" t="n">
-        <v>3077.017355704841</v>
+        <v>29998.97844187517</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>238163.8113348331</v>
+        <v>261195.5478962077</v>
       </c>
       <c r="C4" t="n">
         <v>209253.9124355573</v>
       </c>
       <c r="D4" t="n">
-        <v>167960.7994199293</v>
+        <v>146359.3674130576</v>
       </c>
       <c r="E4" t="n">
-        <v>14210.21945562975</v>
+        <v>14153.26032381966</v>
       </c>
       <c r="F4" t="n">
-        <v>14216.7520768551</v>
+        <v>14216.75207685505</v>
       </c>
       <c r="G4" t="n">
-        <v>14216.7520768551</v>
+        <v>14216.75207685505</v>
       </c>
       <c r="H4" t="n">
         <v>14216.75207685505</v>
       </c>
       <c r="I4" t="n">
-        <v>14216.75207685509</v>
+        <v>14216.75207685505</v>
       </c>
       <c r="J4" t="n">
+        <v>14216.75207685507</v>
+      </c>
+      <c r="K4" t="n">
         <v>14216.75207685505</v>
       </c>
-      <c r="K4" t="n">
-        <v>14216.75207685506</v>
-      </c>
       <c r="L4" t="n">
-        <v>14216.75207685506</v>
+        <v>14216.75207685505</v>
       </c>
       <c r="M4" t="n">
         <v>14216.75207685505</v>
       </c>
       <c r="N4" t="n">
-        <v>14216.75207685507</v>
+        <v>14216.75207685511</v>
       </c>
       <c r="O4" t="n">
+        <v>14216.75207685506</v>
+      </c>
+      <c r="P4" t="n">
         <v>14216.75207685505</v>
-      </c>
-      <c r="P4" t="n">
-        <v>14216.75207685501</v>
       </c>
     </row>
     <row r="5">
@@ -26473,10 +26473,10 @@
         <v>75611.38525919238</v>
       </c>
       <c r="D5" t="n">
-        <v>86851.24314473443</v>
+        <v>92937.77243984473</v>
       </c>
       <c r="E5" t="n">
-        <v>100142.1285138384</v>
+        <v>91503.71233592254</v>
       </c>
       <c r="F5" t="n">
         <v>101122.5298239071</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-642447.3604545811</v>
+        <v>-652438.9609795172</v>
       </c>
       <c r="C6" t="n">
-        <v>-277150.5281666906</v>
+        <v>-277150.5281666905</v>
       </c>
       <c r="D6" t="n">
-        <v>-135462.0618344416</v>
+        <v>-198129.1802777197</v>
       </c>
       <c r="E6" t="n">
-        <v>-423132.840497552</v>
+        <v>-248918.7483323364</v>
       </c>
       <c r="F6" t="n">
-        <v>135531.0998834482</v>
+        <v>33101.77976910892</v>
       </c>
       <c r="G6" t="n">
-        <v>146983.3629984897</v>
+        <v>146948.6250730544</v>
       </c>
       <c r="H6" t="n">
-        <v>146983.3629984898</v>
+        <v>146948.625073054</v>
       </c>
       <c r="I6" t="n">
-        <v>146983.3629984897</v>
+        <v>146948.6250730541</v>
       </c>
       <c r="J6" t="n">
-        <v>97918.41826994524</v>
+        <v>97883.6803445094</v>
       </c>
       <c r="K6" t="n">
-        <v>86736.20340695411</v>
+        <v>86701.46548151839</v>
       </c>
       <c r="L6" t="n">
-        <v>111165.2890597065</v>
+        <v>91529.36629494812</v>
       </c>
       <c r="M6" t="n">
-        <v>-1793.329074610534</v>
+        <v>44864.16232490569</v>
       </c>
       <c r="N6" t="n">
-        <v>143906.3456427849</v>
+        <v>116949.6466311789</v>
       </c>
       <c r="O6" t="n">
-        <v>146983.3629984897</v>
+        <v>146948.625073054</v>
       </c>
       <c r="P6" t="n">
-        <v>146983.3629984898</v>
+        <v>146948.625073054</v>
       </c>
     </row>
   </sheetData>
@@ -26692,19 +26692,19 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -26741,10 +26741,10 @@
         <v>749.98095649761</v>
       </c>
       <c r="D3" t="n">
-        <v>870.8657817714464</v>
+        <v>934.0648921175394</v>
       </c>
       <c r="E3" t="n">
-        <v>1358.041048716385</v>
+        <v>1268.344574622</v>
       </c>
       <c r="F3" t="n">
         <v>1367.975500341674</v>
@@ -26793,13 +26793,13 @@
         <v>421.6151382819818</v>
       </c>
       <c r="D4" t="n">
-        <v>563.1376497058701</v>
+        <v>640.5848321000391</v>
       </c>
       <c r="E4" t="n">
-        <v>1160.145290326006</v>
+        <v>1050.226983703338</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="G4" t="n">
         <v>1172.708288099648</v>
@@ -26914,7 +26914,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26963,13 +26963,13 @@
         <v>201.5110155847054</v>
       </c>
       <c r="D3" t="n">
-        <v>120.8848252738364</v>
+        <v>184.0839356199294</v>
       </c>
       <c r="E3" t="n">
-        <v>487.1752669449389</v>
+        <v>334.2796825044608</v>
       </c>
       <c r="F3" t="n">
-        <v>9.934451625288375</v>
+        <v>99.630925719674</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -27015,13 +27015,13 @@
         <v>234.0895511156619</v>
       </c>
       <c r="D4" t="n">
-        <v>141.5225114238883</v>
+        <v>218.9696938180573</v>
       </c>
       <c r="E4" t="n">
-        <v>597.0076406201359</v>
+        <v>409.6421516032987</v>
       </c>
       <c r="F4" t="n">
-        <v>12.56299777364211</v>
+        <v>122.4813043963109</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27033,19 +27033,19 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>187.5255871663201</v>
+        <v>187.5255871663198</v>
       </c>
       <c r="K4" t="n">
         <v>234.0895511156619</v>
       </c>
       <c r="L4" t="n">
-        <v>141.5225114238883</v>
+        <v>218.9696938180573</v>
       </c>
       <c r="M4" t="n">
-        <v>597.0076406201359</v>
+        <v>409.6421516032987</v>
       </c>
       <c r="N4" t="n">
-        <v>12.56299777364211</v>
+        <v>122.4813043963106</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27151,7 +27151,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27261,13 +27261,13 @@
         <v>234.0895511156619</v>
       </c>
       <c r="L4" t="n">
-        <v>141.5225114238883</v>
+        <v>218.9696938180573</v>
       </c>
       <c r="M4" t="n">
-        <v>597.0076406201359</v>
+        <v>409.6421516032987</v>
       </c>
       <c r="N4" t="n">
-        <v>12.56299777364211</v>
+        <v>122.4813043963109</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27382,22 +27382,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>40.15881059626764</v>
       </c>
       <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
         <v>400</v>
       </c>
-      <c r="G2" t="n">
-        <v>0</v>
-      </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>316.8938261062223</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>125.4713171199747</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27439,13 +27439,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>197.1662647713766</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>376.9068105096672</v>
+        <v>198.7123514897337</v>
       </c>
     </row>
     <row r="3">
@@ -27461,22 +27461,22 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>36.040837679106</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>136.1637893657753</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>65.71421151624187</v>
       </c>
       <c r="I3" t="n">
-        <v>48.77881175550657</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27515,10 +27515,10 @@
         <v>225.8637684100909</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>45.2749999831054</v>
       </c>
       <c r="W3" t="n">
-        <v>64.16939599459974</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
         <v>205.7729852034775</v>
@@ -27537,22 +27537,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>113.0708804575272</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.0019352027142</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>153.4336708318196</v>
       </c>
       <c r="I4" t="n">
         <v>125.7072197708667</v>
@@ -27582,19 +27582,19 @@
         <v>3.343082173845801</v>
       </c>
       <c r="R4" t="n">
-        <v>132.8223696106904</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>113.1473469001729</v>
+        <v>19.25466862917636</v>
       </c>
       <c r="T4" t="n">
         <v>223.7196734901001</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2650814934503</v>
+        <v>98.7394943271304</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>64.61205615750814</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -27613,28 +27613,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>29.66484569284205</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>289.3042681634545</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>308.5974454495113</v>
       </c>
       <c r="I5" t="n">
-        <v>94.24014755885166</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27692,7 +27692,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>87.23063978813428</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -27701,7 +27701,7 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -27713,7 +27713,7 @@
         <v>96.65565115906497</v>
       </c>
       <c r="I6" t="n">
-        <v>33.85559031833734</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27746,7 +27746,7 @@
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>192.1371941995435</v>
+        <v>193.6625353078282</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
@@ -27755,13 +27755,13 @@
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -27777,16 +27777,16 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>146.9340693929231</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>150.2028876639205</v>
@@ -27822,25 +27822,25 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>161.2532257193019</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>222.1670476323163</v>
       </c>
       <c r="U7" t="n">
         <v>286.245260737819</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27850,28 +27850,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>26.56077230608878</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>181.3513050034659</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
-        <v>75.50482202570763</v>
+        <v>65.70991267247044</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,19 +27901,19 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>129.241762040047</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T8" t="n">
-        <v>207.7703622889373</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U8" t="n">
-        <v>251.0655754704829</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -27944,13 +27944,13 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>135.4703341609098</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>24.90327071079379</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27986,7 +27986,7 @@
         <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>149.394392787518</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -28017,19 +28017,19 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>107.2615196179051</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.420565653625</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>148.2647670226449</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I10" t="n">
-        <v>108.2238518764395</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,13 +28056,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>106.6818806125535</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S10" t="n">
-        <v>196.6485701081876</v>
+        <v>56.97999970444454</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -28074,7 +28074,7 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -28087,7 +28087,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1.133261760295336e-12</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -28327,7 +28327,7 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -28530,7 +28530,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>-7.660846363407852e-13</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -28570,13 +28570,13 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>1.307398633798584e-12</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -28737,7 +28737,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>-5.77553963785772e-13</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -28749,7 +28749,7 @@
         <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>-1.696776052995119e-12</v>
       </c>
       <c r="M19" t="n">
         <v>0</v>
@@ -28798,7 +28798,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -29001,7 +29001,7 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>-9.426533627750662e-13</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -29041,7 +29041,7 @@
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>9.003997547551989e-13</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
@@ -29272,7 +29272,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -29566,7 +29566,7 @@
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>2.557953848736361e-13</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -29803,7 +29803,7 @@
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>2.557953848736361e-13</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -30223,7 +30223,7 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
@@ -30238,7 +30238,7 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -30457,7 +30457,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -30709,7 +30709,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>-8.677503160470224e-13</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.500967966920385</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H8" t="n">
-        <v>35.8542881912234</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I8" t="n">
-        <v>134.9710675446983</v>
+        <v>144.7659768979355</v>
       </c>
       <c r="J8" t="n">
-        <v>297.1402799824093</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K8" t="n">
-        <v>445.3362540221493</v>
+        <v>477.6545005857144</v>
       </c>
       <c r="L8" t="n">
-        <v>552.4790024397892</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M8" t="n">
-        <v>614.7393415215095</v>
+        <v>659.3512441730006</v>
       </c>
       <c r="N8" t="n">
-        <v>624.6864667575221</v>
+        <v>670.0202366342226</v>
       </c>
       <c r="O8" t="n">
-        <v>589.8737165364574</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P8" t="n">
-        <v>503.4435698531104</v>
+        <v>539.9786897190646</v>
       </c>
       <c r="Q8" t="n">
-        <v>378.065154537774</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R8" t="n">
-        <v>219.9176790520628</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S8" t="n">
-        <v>79.77830754619835</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T8" t="n">
-        <v>15.32548727519399</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U8" t="n">
-        <v>0.2800774373536308</v>
+        <v>0.3004027793744848</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>1.873183002300847</v>
+        <v>2.009120711347161</v>
       </c>
       <c r="H9" t="n">
-        <v>18.09100425906345</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I9" t="n">
-        <v>64.49336214062129</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J9" t="n">
-        <v>176.9747151428182</v>
+        <v>189.8178475575841</v>
       </c>
       <c r="K9" t="n">
-        <v>302.477976296975</v>
+        <v>324.4289352178439</v>
       </c>
       <c r="L9" t="n">
-        <v>406.7189672320326</v>
+        <v>436.2347404177245</v>
       </c>
       <c r="M9" t="n">
-        <v>474.6218510654382</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N9" t="n">
-        <v>487.1836791817453</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O9" t="n">
-        <v>445.6778873939213</v>
+        <v>478.0209264405676</v>
       </c>
       <c r="P9" t="n">
-        <v>357.6957962902381</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q9" t="n">
-        <v>239.1101671007187</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R9" t="n">
-        <v>116.3016604411</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S9" t="n">
-        <v>34.79355269624597</v>
+        <v>37.31853601997903</v>
       </c>
       <c r="T9" t="n">
-        <v>7.55024201365999</v>
+        <v>8.098166376000174</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1232357238355821</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.570413704833756</v>
+        <v>1.684379313654579</v>
       </c>
       <c r="H10" t="n">
-        <v>13.96240548479467</v>
+        <v>14.97566335231072</v>
       </c>
       <c r="I10" t="n">
-        <v>47.22662305081878</v>
+        <v>50.65387972335773</v>
       </c>
       <c r="J10" t="n">
-        <v>111.0282489317465</v>
+        <v>119.0856174753787</v>
       </c>
       <c r="K10" t="n">
-        <v>182.4535195252309</v>
+        <v>195.694251168232</v>
       </c>
       <c r="L10" t="n">
-        <v>233.4776884441022</v>
+        <v>250.4212663227908</v>
       </c>
       <c r="M10" t="n">
-        <v>246.1694864768041</v>
+        <v>264.0341136849628</v>
       </c>
       <c r="N10" t="n">
-        <v>240.3161263042421</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O10" t="n">
-        <v>221.9708389341386</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P10" t="n">
-        <v>189.9343993555298</v>
+        <v>203.7180217169137</v>
       </c>
       <c r="Q10" t="n">
-        <v>131.5007330474884</v>
+        <v>141.0437987097484</v>
       </c>
       <c r="R10" t="n">
-        <v>70.61151076461594</v>
+        <v>75.73581895759588</v>
       </c>
       <c r="S10" t="n">
-        <v>27.36802792878462</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T10" t="n">
-        <v>6.709949466107863</v>
+        <v>7.196893431069563</v>
       </c>
       <c r="U10" t="n">
-        <v>0.08565892935456859</v>
+        <v>0.09187523529024988</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.459461502377424</v>
+        <v>5.098872661796982</v>
       </c>
       <c r="H11" t="n">
-        <v>55.91171011122281</v>
+        <v>52.21882964762835</v>
       </c>
       <c r="I11" t="n">
-        <v>210.4758895704059</v>
+        <v>196.5742882939283</v>
       </c>
       <c r="J11" t="n">
-        <v>463.3649706874064</v>
+        <v>432.760443579192</v>
       </c>
       <c r="K11" t="n">
-        <v>694.4639760830429</v>
+        <v>648.5957233530584</v>
       </c>
       <c r="L11" t="n">
-        <v>861.5439710364261</v>
+        <v>804.6403475765279</v>
       </c>
       <c r="M11" t="n">
-        <v>958.6336695293306</v>
+        <v>895.31742427576</v>
       </c>
       <c r="N11" t="n">
-        <v>974.1453645229606</v>
+        <v>909.8045962260907</v>
       </c>
       <c r="O11" t="n">
-        <v>919.857844208695</v>
+        <v>859.1026811953469</v>
       </c>
       <c r="P11" t="n">
-        <v>785.0773883687522</v>
+        <v>733.2242623572338</v>
       </c>
       <c r="Q11" t="n">
-        <v>589.5604233148605</v>
+        <v>550.6208851566292</v>
       </c>
       <c r="R11" t="n">
-        <v>342.9428985987162</v>
+        <v>320.292059841605</v>
       </c>
       <c r="S11" t="n">
-        <v>124.4074789854257</v>
+        <v>116.1905607806988</v>
       </c>
       <c r="T11" t="n">
-        <v>23.89879272665719</v>
+        <v>22.3203150770163</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4367569201901939</v>
+        <v>0.4079098129437584</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.921069425540904</v>
+        <v>2.728137386922793</v>
       </c>
       <c r="H12" t="n">
-        <v>28.2113810308819</v>
+        <v>26.34806371054382</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>93.92929161115758</v>
       </c>
       <c r="J12" t="n">
-        <v>275.9770021735817</v>
+        <v>257.7491554899294</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>440.5343604137565</v>
       </c>
       <c r="L12" t="n">
-        <v>634.2436048745723</v>
+        <v>522.0883476064081</v>
       </c>
       <c r="M12" t="n">
-        <v>740.13237155043</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N12" t="n">
-        <v>759.7214730927636</v>
+        <v>709.5430653821697</v>
       </c>
       <c r="O12" t="n">
-        <v>694.9967242426203</v>
+        <v>649.093284335091</v>
       </c>
       <c r="P12" t="n">
-        <v>195.1793561990825</v>
+        <v>520.9545857537042</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>348.2443443377236</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.25758340862159</v>
+        <v>50.67395541060535</v>
       </c>
       <c r="T12" t="n">
-        <v>11.77395965821092</v>
+        <v>10.99630815167564</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1921756201013754</v>
+        <v>0.179482722823868</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.448926481291842</v>
+        <v>2.28717874112164</v>
       </c>
       <c r="H13" t="n">
-        <v>21.77318271548567</v>
+        <v>20.33509826197241</v>
       </c>
       <c r="I13" t="n">
-        <v>73.64589818284924</v>
+        <v>68.78170250573078</v>
       </c>
       <c r="J13" t="n">
-        <v>173.1391022273332</v>
+        <v>161.7035369972999</v>
       </c>
       <c r="K13" t="n">
-        <v>284.5207311900885</v>
+        <v>265.7285846503141</v>
       </c>
       <c r="L13" t="n">
-        <v>364.0885788640618</v>
+        <v>340.0411012027573</v>
       </c>
       <c r="M13" t="n">
-        <v>383.8803574265021</v>
+        <v>358.5256639378221</v>
       </c>
       <c r="N13" t="n">
-        <v>374.7525405416873</v>
+        <v>350.0007249936417</v>
       </c>
       <c r="O13" t="n">
-        <v>346.1446266465962</v>
+        <v>323.2823187905387</v>
       </c>
       <c r="P13" t="n">
-        <v>296.1865264282423</v>
+        <v>276.6238724716571</v>
       </c>
       <c r="Q13" t="n">
-        <v>205.0641983561742</v>
+        <v>191.520030767922</v>
       </c>
       <c r="R13" t="n">
-        <v>110.1126397860859</v>
+        <v>102.839873214433</v>
       </c>
       <c r="S13" t="n">
-        <v>42.67810967851327</v>
+        <v>39.8592876975471</v>
       </c>
       <c r="T13" t="n">
-        <v>10.46359496551969</v>
+        <v>9.772490984792457</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1335778080704643</v>
+        <v>0.1247552040611805</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M15" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565758</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,49 +32145,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P16" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32309,31 +32309,31 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>433.9798411722591</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
@@ -32546,16 +32546,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>164.2853229338207</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
         <v>745.5466476862121</v>
@@ -32564,13 +32564,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
@@ -32783,16 +32783,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>164.2853229338208</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
         <v>745.5466476862121</v>
@@ -32801,13 +32801,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>145.679503963964</v>
@@ -33020,34 +33020,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33260,13 +33260,13 @@
         <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>164.2853229338207</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M30" t="n">
         <v>745.5466476862121</v>
@@ -33275,16 +33275,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>435.9638754389779</v>
       </c>
       <c r="P30" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33731,10 +33731,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
         <v>475.1391886422585</v>
@@ -33749,7 +33749,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>551.7051287319853</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
@@ -33968,16 +33968,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>399.9031616963283</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
         <v>745.5466476862121</v>
@@ -33986,10 +33986,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
         <v>139.9817740860215</v>
@@ -34205,16 +34205,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>164.2853229338207</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
         <v>745.5466476862121</v>
@@ -34223,13 +34223,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
         <v>145.679503963964</v>
@@ -34442,16 +34442,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>399.9031616963283</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
         <v>745.5466476862121</v>
@@ -34460,10 +34460,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
         <v>139.9817740860215</v>
@@ -34857,7 +34857,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>92.63945645062401</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>174.6339172880152</v>
@@ -34866,13 +34866,13 @@
         <v>187.5255871663199</v>
       </c>
       <c r="N4" t="n">
-        <v>123.344572686378</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="O4" t="n">
         <v>164.382023673283</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>28.45844197068212</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -35012,13 +35012,13 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>151.6622745597329</v>
+        <v>25.57123921932407</v>
       </c>
       <c r="K6" t="n">
-        <v>122.6495881517968</v>
+        <v>148.555001155824</v>
       </c>
       <c r="L6" t="n">
-        <v>359.0678111972379</v>
+        <v>211.707952780637</v>
       </c>
       <c r="M6" t="n">
         <v>266.605587369179</v>
@@ -35030,7 +35030,7 @@
         <v>241.2171229812712</v>
       </c>
       <c r="P6" t="n">
-        <v>174.0696575289995</v>
+        <v>421.6151382819818</v>
       </c>
       <c r="Q6" t="n">
         <v>65.9375255168695</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.094375455723</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K8" t="n">
-        <v>225.2464029771688</v>
+        <v>257.5646495407339</v>
       </c>
       <c r="L8" t="n">
-        <v>316.7125874698019</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M8" t="n">
-        <v>384.3931082942368</v>
+        <v>429.0050109457279</v>
       </c>
       <c r="N8" t="n">
-        <v>395.2734031609312</v>
+        <v>440.6071730376316</v>
       </c>
       <c r="O8" t="n">
-        <v>359.7755051147707</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P8" t="n">
-        <v>272.2105740978409</v>
+        <v>308.7456939637951</v>
       </c>
       <c r="Q8" t="n">
-        <v>155.7594646633245</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R8" t="n">
-        <v>4.332141237930699</v>
+        <v>20.2916633093991</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,31 +35249,31 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>50.13708847615152</v>
+        <v>62.98022089091745</v>
       </c>
       <c r="K9" t="n">
-        <v>387.1573897256552</v>
+        <v>186.5874962434849</v>
       </c>
       <c r="L9" t="n">
-        <v>268.1645874521585</v>
+        <v>640.5848321000391</v>
       </c>
       <c r="M9" t="n">
-        <v>332.4878171434199</v>
+        <v>366.9313322820406</v>
       </c>
       <c r="N9" t="n">
-        <v>355.8419670984121</v>
+        <v>391.197099592874</v>
       </c>
       <c r="O9" t="n">
-        <v>303.0816429494768</v>
+        <v>335.4246819961231</v>
       </c>
       <c r="P9" t="n">
-        <v>223.7213888759078</v>
+        <v>411.6868389156661</v>
       </c>
       <c r="Q9" t="n">
-        <v>309.2056807505463</v>
+        <v>116.4807223308546</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>24.58388860977097</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35328,28 +35328,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>17.66906881507374</v>
+        <v>25.72643735870597</v>
       </c>
       <c r="K10" t="n">
-        <v>160.184027699348</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L10" t="n">
-        <v>261.0677137044183</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M10" t="n">
-        <v>285.7533634386447</v>
+        <v>303.6179906468034</v>
       </c>
       <c r="N10" t="n">
-        <v>284.4482986834707</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O10" t="n">
-        <v>246.5559668481783</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P10" t="n">
-        <v>187.2129586204233</v>
+        <v>200.9965809818072</v>
       </c>
       <c r="Q10" t="n">
-        <v>45.33868979579402</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>282.3190661607201</v>
+        <v>251.7145390525057</v>
       </c>
       <c r="K11" t="n">
-        <v>474.3741250380623</v>
+        <v>428.5058723080778</v>
       </c>
       <c r="L11" t="n">
-        <v>625.7775560664388</v>
+        <v>568.8739326065406</v>
       </c>
       <c r="M11" t="n">
-        <v>728.2874363020579</v>
+        <v>664.9711910484873</v>
       </c>
       <c r="N11" t="n">
-        <v>744.7323009263696</v>
+        <v>680.3915326294998</v>
       </c>
       <c r="O11" t="n">
-        <v>689.7596327870083</v>
+        <v>629.0044697736602</v>
       </c>
       <c r="P11" t="n">
-        <v>553.8443926134826</v>
+        <v>501.9912666019642</v>
       </c>
       <c r="Q11" t="n">
-        <v>367.254733440411</v>
+        <v>328.3151952821797</v>
       </c>
       <c r="R11" t="n">
-        <v>127.357360784584</v>
+        <v>104.7065220274728</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>149.139375506915</v>
+        <v>130.9115288232627</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>302.6929214393975</v>
       </c>
       <c r="L12" t="n">
-        <v>495.6892250946981</v>
+        <v>383.5339678265339</v>
       </c>
       <c r="M12" t="n">
-        <v>597.9983376284117</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>628.3797610094304</v>
+        <v>578.2013532988365</v>
       </c>
       <c r="O12" t="n">
-        <v>552.4004797981759</v>
+        <v>506.4970398906465</v>
       </c>
       <c r="P12" t="n">
-        <v>61.20494878475228</v>
+        <v>386.980178339374</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>208.2625702517021</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>79.77992211066046</v>
+        <v>68.34435688062712</v>
       </c>
       <c r="K13" t="n">
-        <v>262.2512393642056</v>
+        <v>243.4590928244312</v>
       </c>
       <c r="L13" t="n">
-        <v>391.6786041243779</v>
+        <v>367.6311264630734</v>
       </c>
       <c r="M13" t="n">
-        <v>423.4642343883427</v>
+        <v>398.1095408996626</v>
       </c>
       <c r="N13" t="n">
-        <v>418.8847129209159</v>
+        <v>394.1328973728703</v>
       </c>
       <c r="O13" t="n">
-        <v>370.7297545606359</v>
+        <v>347.8674467045784</v>
       </c>
       <c r="P13" t="n">
-        <v>293.4650856931358</v>
+        <v>273.9024317365506</v>
       </c>
       <c r="Q13" t="n">
-        <v>118.9021551044798</v>
+        <v>105.3579875162277</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J14" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,31 +35723,31 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M15" t="n">
-        <v>592.1338044402482</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121313</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,22 +35802,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35957,31 +35957,31 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>291.8458072502408</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36045,7 +36045,7 @@
         <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191298</v>
       </c>
       <c r="M19" t="n">
         <v>426.2724270010451</v>
@@ -36194,16 +36194,16 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>25.73094315394657</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
@@ -36212,13 +36212,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36297,7 +36297,7 @@
         <v>295.631773306625</v>
       </c>
       <c r="Q22" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998974</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36431,16 +36431,16 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>25.73094315394658</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
@@ -36449,13 +36449,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36668,34 +36668,34 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36908,13 +36908,13 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>25.73094315394657</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
@@ -36923,16 +36923,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>293.3676309945334</v>
       </c>
       <c r="P30" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37379,10 +37379,10 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
         <v>337.2977496678996</v>
@@ -37397,7 +37397,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>409.1088842875408</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37616,16 +37616,16 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>261.3487819164541</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
@@ -37634,10 +37634,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37853,16 +37853,16 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>25.73094315394657</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
@@ -37871,13 +37871,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38090,16 +38090,16 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>261.3487819164541</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
@@ -38108,10 +38108,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
